--- a/DataDriven/TGM-12Sep.xlsx
+++ b/DataDriven/TGM-12Sep.xlsx
@@ -6,14 +6,20 @@
     <sheet state="visible" name="Post Data" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="PD1-5" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="PD06-14" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Sheet5" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_72DF05E2_7C98_4653_8A50_2F935159A3F1_.wvu.FilterData">'Post Data'!$B$1:$B$1000</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{72DF05E2-7C98-4653-8A50-2F935159A3F1}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2143">
   <si>
     <t>Id</t>
   </si>
@@ -8432,6 +8438,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -20241,6 +20251,17 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{72DF05E2-7C98-4653-8A50-2F935159A3F1}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$B$1:$B$1000">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="artstherapy_postpartum"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
     <hyperlink r:id="rId2" ref="F2"/>
@@ -21916,4 +21937,98 @@
   </hyperlinks>
   <drawing r:id="rId19"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="G2"/>
+    <hyperlink r:id="rId3" ref="D3"/>
+    <hyperlink r:id="rId4" ref="G3"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>